--- a/Individual Data Files/UPDRS IV up to 16 weeks without Thomas (2004).xlsx
+++ b/Individual Data Files/UPDRS IV up to 16 weeks without Thomas (2004).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kayla\Documents\Uni\Scholarships\SCI198 Project 2024-2025\Meta-Analysis in R\SCI198\Meta-analyses data\UPDRS IV total\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C98DDC58-4E8F-4348-B461-4496D00BFDD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1CB1CD5-67AD-4682-8309-BA6A9A2FC7A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="380" windowWidth="19200" windowHeight="10080" xr2:uid="{B271F33F-25EB-4F16-8C49-C35810BA6956}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B271F33F-25EB-4F16-8C49-C35810BA6956}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="30">
   <si>
     <t>authors</t>
   </si>
@@ -111,6 +111,21 @@
   </si>
   <si>
     <t>Tanner (2020)</t>
+  </si>
+  <si>
+    <t>formulation</t>
+  </si>
+  <si>
+    <t>ADS-5102 capsule</t>
+  </si>
+  <si>
+    <t>Amantadine hydrochloride</t>
+  </si>
+  <si>
+    <t>Other/not specified</t>
+  </si>
+  <si>
+    <t>Amantadine sulfate</t>
   </si>
 </sst>
 </file>
@@ -482,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58BC1890-59B3-4497-B269-C90EC36E41E1}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -496,7 +511,7 @@
     <col min="10" max="10" width="11.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -527,8 +542,11 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -559,8 +577,11 @@
       <c r="J2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -591,8 +612,11 @@
       <c r="J3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -623,8 +647,11 @@
       <c r="J4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -655,8 +682,11 @@
       <c r="J5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -687,8 +717,11 @@
       <c r="J6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -719,8 +752,11 @@
       <c r="J7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -751,8 +787,11 @@
       <c r="J8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -783,8 +822,11 @@
       <c r="J9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -814,6 +856,9 @@
       </c>
       <c r="J10" t="s">
         <v>22</v>
+      </c>
+      <c r="K10" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
